--- a/university/kent/Student_Report_Generator/Script/Master_Marking_Sheet.xlsx
+++ b/university/kent/Student_Report_Generator/Script/Master_Marking_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eFiles\Dev\Reposities\GitHub\Repos\teaching\university\kent\marking_sheets_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eFiles\Dev\Reposities\GitHub\Repos\teaching\university\kent\Student_Report_Generator\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510B56F-CE47-467B-AB16-39B9687827E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EDD18E-F696-4D0E-8436-29740DB11144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="5640" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25510" yWindow="0" windowWidth="15740" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="3" r:id="rId1"/>
@@ -213,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -235,6 +235,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -315,7 +331,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +349,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,7 +578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -614,40 +636,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>1001001</v>
       </c>
-      <c r="D2" s="3">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="D2" s="8">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="8">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="8">
         <f>SUM(D2,F2,H2,J2)</f>
         <v>28</v>
       </c>
